--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DCF808-8061-481D-B899-A4A04B6EBF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="30540" yWindow="990" windowWidth="24435" windowHeight="13125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="EoBSDwEC" sheetId="2" r:id="rId2"/>
+    <sheet name="AEO Assumptions" sheetId="3" r:id="rId2"/>
+    <sheet name="EoBSDwEC" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -85,15 +87,6 @@
     <t>Rural Residential</t>
   </si>
   <si>
-    <t>Assumptions to the Annual Energy Outlook 2015</t>
-  </si>
-  <si>
-    <t>Residential Demand Module, Page 29</t>
-  </si>
-  <si>
-    <t>Commercial Demand Module, Page 42</t>
-  </si>
-  <si>
     <t>biomass</t>
   </si>
   <si>
@@ -110,12 +103,27 @@
   </si>
   <si>
     <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>Assumptions to the Annual Energy Outlook 2022</t>
+  </si>
+  <si>
+    <t>Residential Demand Module, Page 9</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module, Page 10</t>
+  </si>
+  <si>
+    <t>Residential Demand Module</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,6 +199,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180192</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C3FC1F-FE30-458F-ACC0-FF8612309214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="206375"/>
+          <a:ext cx="6273017" cy="2926984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21462</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70959D18-BAC9-4E9B-BAAC-7E8F6B9F1CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="3800475"/>
+          <a:ext cx="6111112" cy="888889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37337</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C92F0F4-4461-455F-B1BB-698EDD2ADE65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="4578350"/>
+          <a:ext cx="6107937" cy="1984127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -269,6 +414,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +466,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,22 +658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,77 +683,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -584,24 +765,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE130240-3D15-4D16-8CF4-88107B106124}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
@@ -613,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -627,7 +835,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -641,7 +849,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -655,7 +863,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -669,7 +877,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -683,9 +891,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -697,9 +905,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>-0.15</v>
@@ -711,9 +919,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>-0.15</v>
@@ -725,9 +933,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>-0.15</v>
@@ -739,9 +947,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>-0.15</v>

--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344434C8-6702-4CA8-9A05-280406723E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="30960" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="EoBSDwEC" sheetId="2" r:id="rId2"/>
+    <sheet name="AEO Assumptions" sheetId="3" r:id="rId2"/>
+    <sheet name="EoBSDwEC" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -34,15 +36,9 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
-  </si>
-  <si>
     <t>Commercial</t>
   </si>
   <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/commercial.pdf</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -85,15 +81,6 @@
     <t>Rural Residential</t>
   </si>
   <si>
-    <t>Assumptions to the Annual Energy Outlook 2015</t>
-  </si>
-  <si>
-    <t>Residential Demand Module, Page 29</t>
-  </si>
-  <si>
-    <t>Commercial Demand Module, Page 42</t>
-  </si>
-  <si>
     <t>biomass</t>
   </si>
   <si>
@@ -110,12 +97,33 @@
   </si>
   <si>
     <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>Residential Demand Module</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/CDM_Assumptions.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/rDM_Assumptions.pdf</t>
+  </si>
+  <si>
+    <t>Assumptions to the Annual Energy Outlook 2023</t>
+  </si>
+  <si>
+    <t>Residential Demand Module, Page 10</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module, Page 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,6 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -191,6 +200,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD44B5EF-D9AC-FE06-7866-DB89594A951B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="6087325" cy="2734057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A2935C-7788-A00C-0A39-E609CA2C7CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="6087325" cy="2333951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -269,6 +383,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,10 +627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -504,12 +654,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2015</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,62 +669,62 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>6</v>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -584,13 +734,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545A04D-0C81-4573-BDE4-77F74558811D}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -601,21 +796,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -627,9 +822,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -641,9 +836,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -655,9 +850,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -669,9 +864,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-0.15</v>
@@ -685,7 +880,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -699,7 +894,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>-0.15</v>
@@ -713,7 +908,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>-0.15</v>
@@ -727,7 +922,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>-0.15</v>
@@ -741,7 +936,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>-0.15</v>

--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DCF808-8061-481D-B899-A4A04B6EBF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344434C8-6702-4CA8-9A05-280406723E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="990" windowWidth="24435" windowHeight="13125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -36,15 +36,9 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
-  </si>
-  <si>
     <t>Commercial</t>
   </si>
   <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/commercial.pdf</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -105,19 +99,25 @@
     <t>Elasticity by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t>Assumptions to the Annual Energy Outlook 2022</t>
-  </si>
-  <si>
-    <t>Residential Demand Module, Page 9</t>
-  </si>
-  <si>
-    <t>Commercial Demand Module, Page 10</t>
-  </si>
-  <si>
     <t>Residential Demand Module</t>
   </si>
   <si>
     <t>Commercial Demand Module</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/CDM_Assumptions.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/rDM_Assumptions.pdf</t>
+  </si>
+  <si>
+    <t>Assumptions to the Annual Energy Outlook 2023</t>
+  </si>
+  <si>
+    <t>Residential Demand Module, Page 10</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module, Page 12</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,6 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -206,22 +207,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180192</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56784</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C3FC1F-FE30-458F-ACC0-FF8612309214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD44B5EF-D9AC-FE06-7866-DB89594A951B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -230,15 +231,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="206375"/>
-          <a:ext cx="6273017" cy="2926984"/>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="6087325" cy="2734057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -250,22 +257,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21462</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161814</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70959D18-BAC9-4E9B-BAAC-7E8F6B9F1CD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A2935C-7788-A00C-0A39-E609CA2C7CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -274,59 +281,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350" y="3800475"/>
-          <a:ext cx="6111112" cy="888889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>37337</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>50552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C92F0F4-4461-455F-B1BB-698EDD2ADE65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25400" y="4578350"/>
-          <a:ext cx="6107937" cy="1984127"/>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="6087325" cy="2333951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,21 +630,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,79 +652,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -765,23 +734,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE130240-3D15-4D16-8CF4-88107B106124}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545A04D-0C81-4573-BDE4-77F74558811D}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -798,32 +783,34 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -835,9 +822,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -849,9 +836,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -863,9 +850,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -877,9 +864,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-0.15</v>
@@ -891,9 +878,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -905,9 +892,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>-0.15</v>
@@ -919,9 +906,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>-0.15</v>
@@ -933,9 +920,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>-0.15</v>
@@ -947,9 +934,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>-0.15</v>

--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_TEP/bldgs/EoBSDwEC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteck.TEP-WKS-NT006\ForecastSimulation_Agora_EPS\agoraeps\resources\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4C1E7BD5-FD27-4B7E-9940-D3882D9D87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D067CB15-DF47-43D9-A2BF-A42783C2D3B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1E7BD5-FD27-4B7E-9940-D3882D9D87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>input from article: A meta-analysis on the price elasticity of energy demand. Xavier Labandiera et.  Al. 2017. Table 4</t>
-  </si>
-  <si>
-    <t>Elasticity by Fuel (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -599,25 +596,25 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -625,7 +622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -633,32 +630,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -673,26 +670,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD5AA2D-79F1-4BDA-B5F2-86C1AFF47C52}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
@@ -704,7 +701,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -716,7 +713,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -728,7 +725,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -740,7 +737,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -755,7 +752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -770,7 +767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -782,7 +779,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -794,11 +791,11 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -809,16 +806,16 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -833,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -849,7 +846,7 @@
         <v>-8.1369936034115145E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -865,7 +862,7 @@
         <v>-2.3820895522388062E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -881,7 +878,7 @@
         <v>-7.2835820895522383E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -897,10 +894,10 @@
         <v>-7.2898187633262265E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -913,17 +910,17 @@
         <v>-0.18537260127931771</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -932,7 +929,7 @@
         <v>1.15982620147861</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -941,7 +938,7 @@
         <v>1.208377065726552</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
@@ -955,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -972,7 +969,7 @@
         <v>-0.24288379021103698</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>-0.22234138009368556</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>-0.18971519931906866</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>-0.18004818279325624</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>-0.22234138009368556</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>-0.22717488835659178</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1125,23 +1122,23 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="12" max="12" width="22.08984375" customWidth="1"/>
-    <col min="13" max="13" width="19.90625" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1153,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1167,7 @@
         <v>-0.24288379021103698</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1201,7 @@
         <v>-0.22234138009368556</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1218,7 @@
         <v>-0.18971519931906866</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>-0.18004818279325624</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>-0.22234138009368556</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>-0.22717488835659178</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1340,17 +1337,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4a12692b057bc30d68596ac87c75a308">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd464ebbb7361a2027b4bc4be8d527a" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
     <xsd:element name="properties">
@@ -1371,6 +1359,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1396,7 +1385,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1430,6 +1419,11 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1445,7 +1439,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1464,7 +1458,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1481,8 +1475,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1571,6 +1565,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A9E323-2097-40BE-BA72-465EB7E67C83}">
   <ds:schemaRefs>
@@ -1583,13 +1586,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BCA383-A303-4A08-8FB0-19F880DF75FE}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC50B939-98BE-4044-A680-91D2F5F050B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC863DA-EE73-468D-901A-E32721BD5DED}"/>
 </file>